--- a/Log4.xlsx
+++ b/Log4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Achita\สมัครเรียนปริญญาโท\ปี1 เทอม1\CVE660\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{501FE853-2E64-4E92-96BA-106277AC37CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0F50B0-F031-43DC-9E78-83F8423DA430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2535" yWindow="3270" windowWidth="21600" windowHeight="11385" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
@@ -466,7 +466,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,7 +570,7 @@
         <v>23</v>
       </c>
       <c r="N4">
-        <v>82</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -596,7 +596,7 @@
         <v>22</v>
       </c>
       <c r="N5">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="N6">
-        <v>75</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -648,7 +648,7 @@
         <v>20</v>
       </c>
       <c r="N7">
-        <v>80</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -674,7 +674,7 @@
         <v>18</v>
       </c>
       <c r="N8">
-        <v>100</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Log4.xlsx
+++ b/Log4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Achita\สมัครเรียนปริญญาโท\ปี1 เทอม1\CVE660\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0F50B0-F031-43DC-9E78-83F8423DA430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FED780-EAB5-4231-9E59-0080E9CAAA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2535" yWindow="3270" windowWidth="21600" windowHeight="11385" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
@@ -466,7 +466,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,10 +578,10 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="C5">
-        <v>2.4500000000000002</v>
+        <v>1.95</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -604,10 +604,10 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>3.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="D6">
         <v>6.5</v>
@@ -630,10 +630,10 @@
         <v>22</v>
       </c>
       <c r="B7">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>4.95</v>
+        <v>3.45</v>
       </c>
       <c r="D7">
         <v>9</v>
@@ -656,10 +656,10 @@
         <v>23</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C8">
-        <v>6.45</v>
+        <v>4.95</v>
       </c>
       <c r="D8">
         <v>12.3</v>

--- a/Log4.xlsx
+++ b/Log4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Achita\สมัครเรียนปริญญาโท\ปี1 เทอม1\CVE660\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FED780-EAB5-4231-9E59-0080E9CAAA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5C782C-D214-4288-8866-44994B9EBA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="3270" windowWidth="21600" windowHeight="11385" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
+    <workbookView xWindow="-23670" yWindow="2145" windowWidth="21600" windowHeight="11385" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -466,7 +466,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A4" sqref="A4:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Log4.xlsx
+++ b/Log4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Achita\สมัครเรียนปริญญาโท\ปี1 เทอม1\CVE660\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5C782C-D214-4288-8866-44994B9EBA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4B886C-17CA-4AA6-ADE3-8B6DC0DCE758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23670" yWindow="2145" windowWidth="21600" windowHeight="11385" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Depth, m</t>
   </si>
@@ -103,6 +103,21 @@
   </si>
   <si>
     <t>SS-5</t>
+  </si>
+  <si>
+    <t>SS-6</t>
+  </si>
+  <si>
+    <t>SS-7</t>
+  </si>
+  <si>
+    <t>SS-8</t>
+  </si>
+  <si>
+    <t>SS-9</t>
+  </si>
+  <si>
+    <t>SS-10</t>
   </si>
 </sst>
 </file>
@@ -463,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C815177A-254B-43AF-87E3-B3FBD101C2A0}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:N8"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,6 +690,136 @@
       </c>
       <c r="N8">
         <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>6.5</v>
+      </c>
+      <c r="D9">
+        <v>11.3</v>
+      </c>
+      <c r="E9">
+        <v>1.8</v>
+      </c>
+      <c r="F9">
+        <v>99</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
+      </c>
+      <c r="N9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>6.25</v>
+      </c>
+      <c r="C10">
+        <v>6.5</v>
+      </c>
+      <c r="D10">
+        <v>14.2</v>
+      </c>
+      <c r="E10">
+        <v>1.8</v>
+      </c>
+      <c r="F10">
+        <v>99</v>
+      </c>
+      <c r="G10">
+        <v>22</v>
+      </c>
+      <c r="N10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>6.5</v>
+      </c>
+      <c r="C11">
+        <v>6.73</v>
+      </c>
+      <c r="D11">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E11">
+        <v>1.8</v>
+      </c>
+      <c r="F11">
+        <v>98</v>
+      </c>
+      <c r="G11">
+        <v>23</v>
+      </c>
+      <c r="N11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>7.5</v>
+      </c>
+      <c r="C12">
+        <v>7.63</v>
+      </c>
+      <c r="D12">
+        <v>6.6</v>
+      </c>
+      <c r="E12">
+        <v>1.8</v>
+      </c>
+      <c r="F12">
+        <v>84</v>
+      </c>
+      <c r="G12">
+        <v>15</v>
+      </c>
+      <c r="N12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>9.1</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>1.8</v>
+      </c>
+      <c r="F13">
+        <v>84</v>
+      </c>
+      <c r="G13">
+        <v>15</v>
+      </c>
+      <c r="N13">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Log4.xlsx
+++ b/Log4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Achita\สมัครเรียนปริญญาโท\ปี1 เทอม1\CVE660\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4B886C-17CA-4AA6-ADE3-8B6DC0DCE758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F394902-6A4B-4BD6-9572-79EE222B7379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Depth, m</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>SS-10</t>
+  </si>
+  <si>
+    <t>SS-11</t>
+  </si>
+  <si>
+    <t>SS-12</t>
   </si>
 </sst>
 </file>
@@ -478,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C815177A-254B-43AF-87E3-B3FBD101C2A0}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,6 +825,58 @@
         <v>15</v>
       </c>
       <c r="N13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>9.32</v>
+      </c>
+      <c r="C14">
+        <v>9.32</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>1.8</v>
+      </c>
+      <c r="F14">
+        <v>84</v>
+      </c>
+      <c r="G14">
+        <v>15</v>
+      </c>
+      <c r="N14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>9.32</v>
+      </c>
+      <c r="C15">
+        <v>10.51</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>1.8</v>
+      </c>
+      <c r="F15">
+        <v>84</v>
+      </c>
+      <c r="G15">
+        <v>15</v>
+      </c>
+      <c r="N15">
         <v>100</v>
       </c>
     </row>

--- a/Log4.xlsx
+++ b/Log4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Achita\สมัครเรียนปริญญาโท\ปี1 เทอม1\CVE660\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F394902-6A4B-4BD6-9572-79EE222B7379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2981B8D1-5CCA-4385-B9EF-64F3E4B151A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>

--- a/Log4.xlsx
+++ b/Log4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Achita\สมัครเรียนปริญญาโท\ปี1 เทอม1\CVE660\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2981B8D1-5CCA-4385-B9EF-64F3E4B151A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E03022D-06D6-457F-A564-1693579F7F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
@@ -487,7 +487,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,7 +836,7 @@
         <v>9.32</v>
       </c>
       <c r="C14">
-        <v>9.32</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="D14">
         <v>10</v>
@@ -859,7 +859,7 @@
         <v>30</v>
       </c>
       <c r="B15">
-        <v>9.32</v>
+        <v>9.5</v>
       </c>
       <c r="C15">
         <v>10.51</v>

--- a/Log4.xlsx
+++ b/Log4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Achita\สมัครเรียนปริญญาโท\ปี1 เทอม1\CVE660\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E03022D-06D6-457F-A564-1693579F7F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1F2C92-0741-4F53-AE64-36BB813A7966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
@@ -836,7 +836,7 @@
         <v>9.32</v>
       </c>
       <c r="C14">
-        <v>9.4499999999999993</v>
+        <v>9.32</v>
       </c>
       <c r="D14">
         <v>10</v>
@@ -859,7 +859,7 @@
         <v>30</v>
       </c>
       <c r="B15">
-        <v>9.5</v>
+        <v>9.32</v>
       </c>
       <c r="C15">
         <v>10.51</v>

--- a/Log4.xlsx
+++ b/Log4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Achita\สมัครเรียนปริญญาโท\ปี1 เทอม1\CVE660\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1F2C92-0741-4F53-AE64-36BB813A7966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980B011A-4484-4136-9C1F-329BCFB8E716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Depth, m</t>
   </si>
@@ -118,12 +118,6 @@
   </si>
   <si>
     <t>SS-10</t>
-  </si>
-  <si>
-    <t>SS-11</t>
-  </si>
-  <si>
-    <t>SS-12</t>
   </si>
 </sst>
 </file>
@@ -484,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C815177A-254B-43AF-87E3-B3FBD101C2A0}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,58 +819,6 @@
         <v>15</v>
       </c>
       <c r="N13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14">
-        <v>9.32</v>
-      </c>
-      <c r="C14">
-        <v>9.32</v>
-      </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <v>1.8</v>
-      </c>
-      <c r="F14">
-        <v>84</v>
-      </c>
-      <c r="G14">
-        <v>15</v>
-      </c>
-      <c r="N14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15">
-        <v>9.32</v>
-      </c>
-      <c r="C15">
-        <v>10.51</v>
-      </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <v>1.8</v>
-      </c>
-      <c r="F15">
-        <v>84</v>
-      </c>
-      <c r="G15">
-        <v>15</v>
-      </c>
-      <c r="N15">
         <v>100</v>
       </c>
     </row>

--- a/Log4.xlsx
+++ b/Log4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Achita\สมัครเรียนปริญญาโท\ปี1 เทอม1\CVE660\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980B011A-4484-4136-9C1F-329BCFB8E716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E083ABD2-2BED-47C6-BABE-9F5BBCF05C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Depth, m</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>SS-10</t>
+  </si>
+  <si>
+    <t>SS-11</t>
+  </si>
+  <si>
+    <t>SS-12</t>
   </si>
 </sst>
 </file>
@@ -478,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C815177A-254B-43AF-87E3-B3FBD101C2A0}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,6 +825,58 @@
         <v>15</v>
       </c>
       <c r="N13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>9.32</v>
+      </c>
+      <c r="C14">
+        <v>9.32</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>1.8</v>
+      </c>
+      <c r="F14">
+        <v>84</v>
+      </c>
+      <c r="G14">
+        <v>15</v>
+      </c>
+      <c r="N14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>9.32</v>
+      </c>
+      <c r="C15">
+        <v>10.51</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>1.8</v>
+      </c>
+      <c r="F15">
+        <v>84</v>
+      </c>
+      <c r="G15">
+        <v>15</v>
+      </c>
+      <c r="N15">
         <v>100</v>
       </c>
     </row>

--- a/Log4.xlsx
+++ b/Log4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Achita\สมัครเรียนปริญญาโท\ปี1 เทอม1\CVE660\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E083ABD2-2BED-47C6-BABE-9F5BBCF05C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EC37BD-E239-48D4-8E1F-5E6FF00401A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>

--- a/Log4.xlsx
+++ b/Log4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Achita\สมัครเรียนปริญญาโท\ปี1 เทอม1\CVE660\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EC37BD-E239-48D4-8E1F-5E6FF00401A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51352D0E-8832-47AF-9A4B-3898CAC03EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
@@ -487,7 +487,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,13 +845,13 @@
         <v>1.8</v>
       </c>
       <c r="F14">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G14">
         <v>15</v>
       </c>
       <c r="N14">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -871,13 +871,13 @@
         <v>1.8</v>
       </c>
       <c r="F15">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G15">
         <v>15</v>
       </c>
       <c r="N15">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
